--- a/ResourcesFolder/TestObject.xlsx
+++ b/ResourcesFolder/TestObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>waitjishi</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>//img[@alt='Jishi']</t>
+  </si>
+  <si>
+    <t>active_banner</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'ng-trigger ng-trigger-autoHeight ng-star-inserted active')]/img[@class='img-fluid ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Jishi_explore_MySelf</t>
+  </si>
+  <si>
+    <t>//button[@class='explore-myself']</t>
   </si>
 </sst>
 </file>
@@ -386,16 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -448,6 +460,22 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/ResourcesFolder/TestObject.xlsx
+++ b/ResourcesFolder/TestObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>waitjishi</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>//button[@class='explore-myself']</t>
+  </si>
+  <si>
+    <t>List_banner</t>
+  </si>
+  <si>
+    <t>//div[not(contains(@class,'ng-trigger ng-trigger-autoHeight ng-star-inserted cloned'))]/img[@class='img-fluid ng-star-inserted']</t>
   </si>
 </sst>
 </file>
@@ -398,16 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -468,14 +474,22 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
